--- a/biology/Microbiologie/Lachnospiraceae/Lachnospiraceae.xlsx
+++ b/biology/Microbiologie/Lachnospiraceae/Lachnospiraceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Lachnospiraceae forment une famille de bactéries anaérobies présentes dans le microbiote intestinal des mammifères.
 </t>
@@ -511,18 +523,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Lachnospiraceae Rainey 2010[1].
-Le genre type est : Lachnospira Bryant &amp; Small 1956[1].
-Synonymes
-Lachnospiraceae a pour synonymes[1] :
-Anaerotignaceae Chuvochina et al. 2024
-Anaerotignaceae Gilroy et al. 2021
-Cellulosilyticaceae Dong &amp; Zhou 2023
-Natranaerovirgaceae Sorokin &amp; Merkel 2024
-Étymologie
-L'étymologie du nom de cette famille est la suivante : N.L. fem. n. Lachnospira, genre type de cette famille; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille; N.L. fem. pl. n. Lachnospiraceae, la famille du genre Lachnospira[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Lachnospiraceae Rainey 2010.
+Le genre type est : Lachnospira Bryant &amp; Small 1956.
 </t>
         </is>
       </c>
@@ -548,12 +554,91 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Lachnospiraceae a pour synonymes :
+Anaerotignaceae Chuvochina et al. 2024
+Anaerotignaceae Gilroy et al. 2021
+Cellulosilyticaceae Dong &amp; Zhou 2023
+Natranaerovirgaceae Sorokin &amp; Merkel 2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'étymologie du nom de cette famille est la suivante : N.L. fem. n. Lachnospira, genre type de cette famille; L. fem. pl. n. suff. -aceae, suffixe pour définir une famille; N.L. fem. pl. n. Lachnospiraceae, la famille du genre Lachnospira.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Microbiologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Lachnospiraceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon LPSN  (27 avril 2024)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon LPSN  (27 avril 2024) :
 Acetatifactor Pfeiffer et al. 2013
 Acetitomaculum Greening &amp; Leedle 1995
 Agathobacter Rosero et al. 2016
